--- a/Aurora/Process/Timesheet/PTW-Timesheet .xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C580AE53-C51E-40CF-9511-AC93872BC7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3FEADA-3738-4AD3-B4AD-D38A1726E56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
   <si>
     <t>Resource Name</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t xml:space="preserve">Redefined Wireframe for Reviewer Dashboard,Publish and Reject Page. </t>
+  </si>
+  <si>
+    <t> Refined the WireFrames for Published Articles,Draft and Worked on entity model</t>
+  </si>
+  <si>
+    <t> Created the wireframes for My Articles page,Published and Draft page and Create Articles Page</t>
+  </si>
+  <si>
+    <t>3,1,1,</t>
   </si>
   <si>
     <t> Refined the wireframe for homepage, article page and added  pagenation and worked on entity model</t>
@@ -1888,7 +1897,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15"/>
@@ -2141,25 +2150,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="38.25">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>60</v>
@@ -2195,10 +2204,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>60</v>
@@ -2219,10 +2228,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>60</v>

--- a/Aurora/Process/Timesheet/PTW-Timesheet .xlsx
+++ b/Aurora/Process/Timesheet/PTW-Timesheet .xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3FEADA-3738-4AD3-B4AD-D38A1726E56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="07.04.2022" sheetId="43" r:id="rId4"/>
     <sheet name="08.04.2022" sheetId="45" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="76">
   <si>
     <t>Resource Name</t>
   </si>
@@ -258,13 +257,19 @@
   </si>
   <si>
     <t> Created wireframe for login and register</t>
+  </si>
+  <si>
+    <t>Overall Changes in Wireframe is in Progress</t>
+  </si>
+  <si>
+    <t>Completed Admin Layout page,Dashboard page,Employee List page in Wireframe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,23 +569,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -616,23 +604,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,12 +779,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB2D5E3-4B43-48DE-B6AB-74C89F64C892}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -822,7 +793,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -839,7 +810,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -848,7 +819,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -857,7 +828,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -866,7 +837,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -875,7 +846,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -898,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -909,7 +880,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -920,7 +891,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -931,7 +902,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -942,7 +913,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -953,7 +924,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -964,7 +935,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -975,7 +946,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -986,7 +957,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -997,7 +968,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1008,9 +979,6 @@
       <c r="G19" s="5"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -1018,14 +986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E62D10-54D4-4787-A1A2-F3FE8B19A9D8}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1034,7 +1002,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1019,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1060,7 +1028,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1069,7 +1037,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1078,7 +1046,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1087,7 +1055,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1129,7 +1097,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1148,7 +1116,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1167,7 +1135,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="33" customHeight="1">
+    <row r="13" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1154,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="33" customHeight="1">
+    <row r="14" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1173,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1224,7 +1192,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="25.5">
+    <row r="16" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1213,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="25.5">
+    <row r="17" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1266,7 +1234,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="25.5">
+    <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1255,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="25.5">
+    <row r="19" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1306,9 +1274,6 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -1316,14 +1281,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F4477B-54A4-44FB-9400-913F92230D27}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1332,7 +1297,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1314,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1358,7 +1323,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1367,7 +1332,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1376,7 +1341,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1385,7 +1350,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1392,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1446,7 +1411,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1430,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1484,7 +1449,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1503,7 +1468,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1522,7 +1487,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1543,7 +1508,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1562,7 +1527,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1581,7 +1546,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1600,11 +1565,8 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:H19">
+  <sortState ref="B10:H19">
     <sortCondition ref="B10:B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1613,14 +1575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483AB1E-2E48-4C63-BF41-D38272F555D9}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1629,7 +1591,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1608,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1655,7 +1617,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1664,7 +1626,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1673,7 +1635,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1682,7 +1644,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1724,7 +1686,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="56.25" customHeight="1">
+    <row r="11" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1739,7 +1701,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1720,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1777,7 +1739,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1796,7 +1758,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="43.5" customHeight="1">
+    <row r="15" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1815,7 +1777,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +1788,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1845,7 +1807,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1826,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1883,9 +1845,6 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -1893,16 +1852,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA977E4-D73A-4DCB-BEA4-AA6D942663EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1912,7 +1871,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1922,7 +1881,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1932,7 +1891,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>0</v>
@@ -1950,7 +1909,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="17" t="s">
         <v>60</v>
@@ -1968,7 +1927,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="17" t="s">
         <v>60</v>
@@ -1986,7 +1945,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="15"/>
       <c r="C7" s="19"/>
@@ -1996,7 +1955,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="22"/>
       <c r="C8" s="16"/>
@@ -2006,7 +1965,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
         <v>0</v>
@@ -2030,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="87" customHeight="1">
+    <row r="10" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="17" t="s">
         <v>9</v>
@@ -2054,7 +2013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.25">
+    <row r="11" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="17" t="s">
         <v>10</v>
@@ -2078,31 +2037,31 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>60</v>
+      <c r="F12" s="18">
+        <v>6</v>
+      </c>
+      <c r="G12" s="18">
+        <v>2</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="38.25">
+    <row r="13" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="17" t="s">
         <v>12</v>
@@ -2126,7 +2085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="17" t="s">
         <v>13</v>
@@ -2150,7 +2109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="38.25">
+    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
         <v>14</v>
@@ -2174,7 +2133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="17" t="s">
         <v>15</v>
@@ -2198,7 +2157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="51">
+    <row r="17" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="17" t="s">
         <v>16</v>
@@ -2222,7 +2181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="38.25">
+    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="17" t="s">
         <v>17</v>
@@ -2246,7 +2205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="17" t="s">
         <v>18</v>
